--- a/Teste/bakclog.xlsx
+++ b/Teste/bakclog.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joao_nicolai\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joao_nicolai\Desktop\F1_novo\Teste\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6030" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="69">
   <si>
     <t>lista de tarefas</t>
   </si>
@@ -221,6 +221,18 @@
   </si>
   <si>
     <t>inicialização do projeto</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Style</t>
+  </si>
+  <si>
+    <t>F1_main</t>
+  </si>
+  <si>
+    <t>F1_class</t>
   </si>
 </sst>
 </file>
@@ -925,9 +937,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E27"/>
+  <dimension ref="B1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1167,6 +1181,26 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
